--- a/similarities/split_global/harmonic_similarity_timestamps_136.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_136.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>['D:7', 'G:min', 'C:min', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C'], ['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:12.140000', '0:00:20.020000'), ('0:00:23.020000', '0:00:30.140000')]</t>
+          <t>('0:00:07.900000', '0:00:21.680000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:45.720000', '0:00:49.900000'), ('0:00:24.420000', '0:00:32.620000')]</t>
+          <t>('0:00:23.420000', '0:00:33.960000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=23.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=7.9</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=24.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=23.42</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:28.583470', '0:01:38.974002')]</t>
+          <t>('0:00:27.760000', '0:00:40.180000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:46.560000', '0:00:49.080000')]</t>
+          <t>('0:00:18.160000', '0:00:47.440000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=88.58347']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=27.76</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=18.16</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Ab/5', 'Eb', 'Ab/5', 'Eb']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['D#:maj', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:18.978000', '0:00:25.693000')]</t>
+          <t>('0:00:51.800000', '0:00:59.900000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:27.920000', '0:00:30.360000')]</t>
+          <t>('0:00:17.980000', '0:00:26.320000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=18.978']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=51.8</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=27.92']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=17.98</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_4</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/5'], ['G:7', 'C:min', 'F:min']]</t>
+          <t>['D/5', 'A', 'D']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min'], ['E:7', 'A:min', 'D:min']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:24.323000', '0:01:27.713000'), ('0:02:36.152000', '0:02:39.022000')]</t>
+          <t>('0:00:12.743000', '0:00:16.216000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:10.220000', '0:00:20.160000'), ('0:00:07.540000', '0:00:18')]</t>
+          <t>('0:02:37.840000', '0:02:40.980000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=84.323', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=156.152']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=12.743</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=10.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=7.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=157.84</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:56.690000', '0:02:02.570000')]</t>
+          <t>('0:01:04.300000', '0:01:05.720000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:01:10.060000', '0:01:20.280000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:02:08.540000', '0:02:13.900000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:02:26.280000', '0:02:29.120000'), ('0:02:23.580000', '0:02:28.160000')]</t>
+          <t>('0:01:56.690000', '0:02:03.070000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=58.300068', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=146.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G#/C', 'D#:7/A#', 'G#/C']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Cb', 'Gb:7', 'Cb']]</t>
+          <t>['A:min', 'E:maj/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:47.420000', '0:00:49.320000')]</t>
+          <t>('0:00:04.840000', '0:00:10.640000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:46.759000', '0:00:50.551000')]</t>
+          <t>('0:00:10.760000', '0:00:16.080000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=47.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=4.84</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=46.759']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
+          <t>('0:01:07.100430', '0:01:15.018435')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:03.826054', '0:00:14.054444')]</t>
+          <t>('0:00:43.260000', '0:00:45.660000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=67.10043</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>jaah_70</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>jaah_27</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'C'], ['C/9', 'G', 'C/5']]</t>
+          <t>['Gb:maj6', 'Ab:7', 'Db', 'Db:7']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'D:maj', 'G:maj'], ['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['E:min7', 'A:7', 'D', 'D:7']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:33.166077', '0:00:38.135147'), ('0:00:03.049795', '0:00:10.723990')]</t>
+          <t>('0:00:55.470000', '0:00:59.320000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:21.224000', '0:00:29.739000'), ('0:00:11.820000', '0:00:17.361000')]</t>
+          <t>('0:00:08.780000', '0:00:17.090000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=33.166077', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=3.049795']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=55.47</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=21.224', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=8.78</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C', 'G', 'D']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:58.940000', '0:01:10.960000')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:07.102281', '0:00:24.401147')]</t>
+          <t>('0:00:02.612267', '0:00:17.443474')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=58.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=7.102281']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['B', 'E', 'B']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['Bb', 'Eb', 'Bb']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.820000', '0:00:06.760000')]</t>
+          <t>('0:00:14.402743', '0:00:19.871043')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:02.880000')]</t>
+          <t>('0:00:07.702000', '0:00:10.952000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=0.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=14.402743</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.702</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['E', 'B', 'E', 'A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['Eb', 'Bb', 'Eb', 'Ab']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:26.343061', '0:00:36.803650')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:00:08.359000', '0:00:15.006000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=26.343061</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=8.359</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:58.780000', '0:02:02.740000')]</t>
+          <t>('0:00:22.370000', '0:00:40.370000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:32.080000', '0:00:45.580000')]</t>
+          <t>('0:01:12.640000', '0:01:23.380000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=118.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'B'], ['E', 'A', 'E']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:57.700000', '0:01:05.360000'), ('0:00:54.180000', '0:01:01.460000')]</t>
+          <t>('0:00:12.120000', '0:00:17.320000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:35.080113', '0:00:43.578616'), ('0:00:32.920657', '0:00:39.410634')]</t>
+          <t>('0:00:07.140000', '0:00:14.340000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=57.7', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=35.080113', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=32.920657']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=7.14</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_184</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A', 'F#:min', 'B:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:24.143514', '0:00:35.544512')]</t>
+          <t>('0:02:11.200000', '0:02:16.340000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:07.960000', '0:00:15.560000')]</t>
+          <t>('0:00:09.620000', '0:00:14.180000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-184#t=24.143514']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=7.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=9.62</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
